--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H2">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I2">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J2">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.2346361774526667</v>
+        <v>1.686836901814167</v>
       </c>
       <c r="R2">
-        <v>1.407817064716</v>
+        <v>10.121021410885</v>
       </c>
       <c r="S2">
-        <v>0.002617098797072892</v>
+        <v>0.01613429555920057</v>
       </c>
       <c r="T2">
-        <v>0.002059543699331359</v>
+        <v>0.01209248064326603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H3">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I3">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J3">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>20.630287306035</v>
+        <v>31.539553746525</v>
       </c>
       <c r="R3">
-        <v>185.672585754315</v>
+        <v>283.855983718725</v>
       </c>
       <c r="S3">
-        <v>0.2301073120012966</v>
+        <v>0.3016702334436993</v>
       </c>
       <c r="T3">
-        <v>0.2716267714839804</v>
+        <v>0.3391478833255204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H4">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I4">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J4">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.1668233132842222</v>
+        <v>0.1752572508438889</v>
       </c>
       <c r="R4">
-        <v>1.501409819558</v>
+        <v>1.577315257595</v>
       </c>
       <c r="S4">
-        <v>0.001860723684044531</v>
+        <v>0.001676304496876469</v>
       </c>
       <c r="T4">
-        <v>0.00219646373913553</v>
+        <v>0.001884558232460836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H5">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I5">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J5">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>9.016543664881834</v>
+        <v>8.226172607839166</v>
       </c>
       <c r="R5">
-        <v>54.099261989291</v>
+        <v>49.35703564703499</v>
       </c>
       <c r="S5">
-        <v>0.1005692550709821</v>
+        <v>0.0786818808819838</v>
       </c>
       <c r="T5">
-        <v>0.07914365932977063</v>
+        <v>0.05897122177104184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H6">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I6">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J6">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.4237159311241111</v>
+        <v>1.172886456163889</v>
       </c>
       <c r="R6">
-        <v>3.813443380117</v>
+        <v>10.555978105475</v>
       </c>
       <c r="S6">
-        <v>0.00472606767500392</v>
+        <v>0.01121845077065802</v>
       </c>
       <c r="T6">
-        <v>0.005578816653896174</v>
+        <v>0.01261216192803555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H7">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I7">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J7">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.1169992474262222</v>
+        <v>0.06905717216888889</v>
       </c>
       <c r="R7">
-        <v>1.052993226836</v>
+        <v>0.62151454952</v>
       </c>
       <c r="S7">
-        <v>0.001304993087689427</v>
+        <v>0.0006605195944297642</v>
       </c>
       <c r="T7">
-        <v>0.00154045977998297</v>
+        <v>0.000742578476466401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H8">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I8">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J8">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.119409569451</v>
+        <v>0.44698915836575</v>
       </c>
       <c r="R8">
-        <v>0.4776382778039999</v>
+        <v>1.787956633463</v>
       </c>
       <c r="S8">
-        <v>0.001331877479261467</v>
+        <v>0.004275371961020705</v>
       </c>
       <c r="T8">
-        <v>0.000698753360976737</v>
+        <v>0.002136230139568479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H9">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I9">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J9">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>10.4990362168725</v>
+        <v>8.3575587949425</v>
       </c>
       <c r="R9">
-        <v>62.994217301235</v>
+        <v>50.145352769655</v>
       </c>
       <c r="S9">
-        <v>0.1171047676957008</v>
+        <v>0.07993856644111627</v>
       </c>
       <c r="T9">
-        <v>0.09215639346099379</v>
+        <v>0.05991309405438524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H10">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I10">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J10">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.084898672617</v>
+        <v>0.04644082126016667</v>
       </c>
       <c r="R10">
-        <v>0.509392035702</v>
+        <v>0.278644927561</v>
       </c>
       <c r="S10">
-        <v>0.0009469478082673682</v>
+        <v>0.0004441982122976353</v>
       </c>
       <c r="T10">
-        <v>0.000745207018662803</v>
+        <v>0.0003329217730190556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H11">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I11">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J11">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>4.58864276024475</v>
+        <v>2.17982542745825</v>
       </c>
       <c r="R11">
-        <v>18.354571040979</v>
+        <v>8.719301709832999</v>
       </c>
       <c r="S11">
-        <v>0.05118107351734513</v>
+        <v>0.02084964330353895</v>
       </c>
       <c r="T11">
-        <v>0.02685152928516601</v>
+        <v>0.01041772197374813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H12">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I12">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J12">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.2156348498955</v>
+        <v>0.3107991823841666</v>
       </c>
       <c r="R12">
-        <v>1.293809099373</v>
+        <v>1.864795094305</v>
       </c>
       <c r="S12">
-        <v>0.002405160672131862</v>
+        <v>0.002972739013920661</v>
       </c>
       <c r="T12">
-        <v>0.001892757550348905</v>
+        <v>0.002228035853899933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H13">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I13">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J13">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.05954252201399999</v>
+        <v>0.01829922456266667</v>
       </c>
       <c r="R13">
-        <v>0.3572551320839999</v>
+        <v>0.109795347376</v>
       </c>
       <c r="S13">
-        <v>0.0006641288842551188</v>
+        <v>0.0001750288349043796</v>
       </c>
       <c r="T13">
-        <v>0.0005226407427344436</v>
+        <v>0.0001311822254853677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H14">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I14">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J14">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.3336628796959999</v>
+        <v>1.374727793952334</v>
       </c>
       <c r="R14">
-        <v>2.001977278176</v>
+        <v>8.248366763714001</v>
       </c>
       <c r="S14">
-        <v>0.003721628653179179</v>
+        <v>0.01314902734059245</v>
       </c>
       <c r="T14">
-        <v>0.002928760982382105</v>
+        <v>0.009855054285479347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H15">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I15">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J15">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>29.33716848876</v>
+        <v>25.70390836101</v>
       </c>
       <c r="R15">
-        <v>264.03451639884</v>
+        <v>231.33517524909</v>
       </c>
       <c r="S15">
-        <v>0.3272226354648447</v>
+        <v>0.2458533211344401</v>
       </c>
       <c r="T15">
-        <v>0.3862651180215184</v>
+        <v>0.2763966219652099</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H16">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I16">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J16">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.2372300286986667</v>
+        <v>0.1428300587731111</v>
       </c>
       <c r="R16">
-        <v>2.135070258288</v>
+        <v>1.285470528958</v>
       </c>
       <c r="S16">
-        <v>0.002646030247667556</v>
+        <v>0.001366144160413464</v>
       </c>
       <c r="T16">
-        <v>0.003123467251744027</v>
+        <v>0.001535865488061874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H17">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I17">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J17">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>12.821918413396</v>
+        <v>6.704114730762333</v>
       </c>
       <c r="R17">
-        <v>76.93151048037601</v>
+        <v>40.22468838457399</v>
       </c>
       <c r="S17">
-        <v>0.143013867768259</v>
+        <v>0.06412366744679278</v>
       </c>
       <c r="T17">
-        <v>0.1125457359915337</v>
+        <v>0.04805999769437657</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H18">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I18">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J18">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.6025425375013332</v>
+        <v>0.955871672421111</v>
       </c>
       <c r="R18">
-        <v>5.422882837512</v>
+        <v>8.602845051789998</v>
       </c>
       <c r="S18">
-        <v>0.006720674395567576</v>
+        <v>0.009142742883395009</v>
       </c>
       <c r="T18">
-        <v>0.007933320642382655</v>
+        <v>0.01027858089045293</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.539082</v>
+      </c>
+      <c r="I19">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J19">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.329104</v>
+      </c>
+      <c r="O19">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P19">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q19">
+        <v>0.05627978250311112</v>
+      </c>
+      <c r="R19">
+        <v>0.506518042528</v>
+      </c>
+      <c r="S19">
+        <v>0.0005383061302110137</v>
+      </c>
+      <c r="T19">
+        <v>0.0006051819649494502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J20">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.6796385</v>
+      </c>
+      <c r="N20">
+        <v>5.359277000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.03934793987875059</v>
+      </c>
+      <c r="P20">
+        <v>0.02842274181890429</v>
+      </c>
+      <c r="Q20">
+        <v>0.6052642394003335</v>
+      </c>
+      <c r="R20">
+        <v>3.631585436402001</v>
+      </c>
+      <c r="S20">
+        <v>0.00578924501793686</v>
+      </c>
+      <c r="T20">
+        <v>0.004338976750590435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J21">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>50.102415</v>
+      </c>
+      <c r="N21">
+        <v>150.307245</v>
+      </c>
+      <c r="O21">
+        <v>0.7357062578404556</v>
+      </c>
+      <c r="P21">
+        <v>0.7971493203553003</v>
+      </c>
+      <c r="Q21">
+        <v>11.31689968893</v>
+      </c>
+      <c r="R21">
+        <v>101.85209720037</v>
+      </c>
+      <c r="S21">
+        <v>0.1082441368211999</v>
+      </c>
+      <c r="T21">
+        <v>0.1216917210101848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J22">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2784063333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.8352189999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004088131912518571</v>
+      </c>
+      <c r="P22">
+        <v>0.00442955532980352</v>
+      </c>
+      <c r="Q22">
+        <v>0.06288512334377777</v>
+      </c>
+      <c r="R22">
+        <v>0.565966110094</v>
+      </c>
+      <c r="S22">
+        <v>0.0006014850429310031</v>
+      </c>
+      <c r="T22">
+        <v>0.0006762098362617555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J23">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.0677535</v>
+      </c>
+      <c r="N23">
+        <v>26.135507</v>
+      </c>
+      <c r="O23">
+        <v>0.1918875173156127</v>
+      </c>
+      <c r="P23">
+        <v>0.1386087652806835</v>
+      </c>
+      <c r="Q23">
+        <v>2.951683177730333</v>
+      </c>
+      <c r="R23">
+        <v>17.710099066382</v>
+      </c>
+      <c r="S23">
+        <v>0.02823232568329719</v>
+      </c>
+      <c r="T23">
+        <v>0.02115982384151697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.585544</v>
-      </c>
-      <c r="H19">
-        <v>1.756632</v>
-      </c>
-      <c r="I19">
-        <v>0.4851805936269489</v>
-      </c>
-      <c r="J19">
-        <v>0.5149870038950203</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.852428</v>
-      </c>
-      <c r="O19">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P19">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q19">
-        <v>0.1663780336106666</v>
-      </c>
-      <c r="R19">
-        <v>1.497402302496</v>
-      </c>
-      <c r="S19">
-        <v>0.001855757097430843</v>
-      </c>
-      <c r="T19">
-        <v>0.002190601005459496</v>
+      <c r="G24">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J24">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.863198333333333</v>
+      </c>
+      <c r="N24">
+        <v>5.589594999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.02735929342789644</v>
+      </c>
+      <c r="P24">
+        <v>0.02964422543511714</v>
+      </c>
+      <c r="Q24">
+        <v>0.4208505446077778</v>
+      </c>
+      <c r="R24">
+        <v>3.78765490147</v>
+      </c>
+      <c r="S24">
+        <v>0.00402536075992275</v>
+      </c>
+      <c r="T24">
+        <v>0.00452544676272873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J25">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.329104</v>
+      </c>
+      <c r="O25">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P25">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q25">
+        <v>0.02477882523377778</v>
+      </c>
+      <c r="R25">
+        <v>0.223009427104</v>
+      </c>
+      <c r="S25">
+        <v>0.0002370050652209358</v>
+      </c>
+      <c r="T25">
+        <v>0.0002664491132901536</v>
       </c>
     </row>
   </sheetData>
